--- a/Data/Output/부동산공시_20240415_박건후.xlsx
+++ b/Data/Output/부동산공시_20240415_박건후.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="133">
   <si>
     <t>고객번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,19 +293,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>고객번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>고객명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>대분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단지명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기준가격(￦)</t>
+    <t>공시기준일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공시기준일 가격(￦)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -380,6 +396,9 @@
   </si>
   <si>
     <t>정보없음</t>
+  </si>
+  <si>
+    <t>확인 불가</t>
   </si>
   <si>
     <t>대전광역시 유성구 문화원로 119(유성구 봉명동   640-7)</t>
@@ -1285,7 +1304,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1299,18 +1318,19 @@
     <col min="8" max="8" width="4.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="15.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -1319,28 +1339,28 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1348,19 +1368,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H2" s="1">
         <v>203</v>
@@ -1369,14 +1389,14 @@
         <v>54800000</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K2" s="4">
         <v>54800000</v>
       </c>
       <c r="L2" s="4"/>
-      <c r="M2" t="s">
-        <v>77</v>
+      <c r="M2" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1384,19 +1404,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G3" s="1">
         <v>101</v>
@@ -1408,14 +1428,14 @@
         <v>61900000</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K3" s="4">
         <v>61900000</v>
       </c>
       <c r="L3" s="4"/>
-      <c r="M3" t="s">
-        <v>82</v>
+      <c r="M3" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1426,19 +1446,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H4" s="1">
         <v>602</v>
@@ -1447,14 +1467,14 @@
         <v>186000000</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K4" s="4">
         <v>186000000</v>
       </c>
       <c r="L4" s="4"/>
-      <c r="M4" t="s">
-        <v>88</v>
+      <c r="M4" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1465,32 +1485,34 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H5" s="1">
         <v>305</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" s="4">
         <v>36500000</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" t="s">
-        <v>94</v>
+      <c r="L5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1501,19 +1523,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H6" s="1">
         <v>202</v>
@@ -1522,16 +1544,16 @@
         <v>343000000</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K6" s="4">
         <v>317000000</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="M6" t="s">
-        <v>101</v>
+        <v>105</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1548,10 +1570,10 @@
         <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G7" s="1">
         <v>603</v>
@@ -1563,8 +1585,11 @@
         <v>879000000</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="M7" t="s">
-        <v>104</v>
+      <c r="L7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1575,19 +1600,19 @@
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H8" s="1">
         <v>305</v>
@@ -1596,8 +1621,11 @@
         <v>103000000</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="M8" t="s">
-        <v>110</v>
+      <c r="L8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1608,16 +1636,16 @@
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G9" s="1">
         <v>7</v>
@@ -1629,16 +1657,16 @@
         <v>136000000</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K9" s="4">
         <v>121000000</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M9" t="s">
-        <v>115</v>
+        <v>105</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1649,16 +1677,16 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H10" s="1">
         <v>204</v>
@@ -1667,16 +1695,16 @@
         <v>61000000</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K10" s="4">
         <v>61600000</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="M10" t="s">
-        <v>121</v>
+        <v>125</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1687,19 +1715,19 @@
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H11" s="1">
         <v>105</v>
@@ -1708,16 +1736,16 @@
         <v>158000000</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K11" s="4">
         <v>137000000</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M11" t="s">
-        <v>127</v>
+        <v>105</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
